--- a/src/main/resources/dataSheets/TC02.xlsx
+++ b/src/main/resources/dataSheets/TC02.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BD3136EF-F57D-461B-8CD4-86997A81BACE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{07D9A3F6-05BD-48A6-A133-C9466B728741}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="20790" windowHeight="11820" xr2:uid="{2B02C3BB-63FE-7140-94EE-4236C8474EDA}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="20790" windowHeight="11820" xr2:uid="{2B02C3BB-63FE-7140-94EE-4236C8474EDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>UserName</t>
   </si>
@@ -32,13 +32,7 @@
     <t>Admin@123</t>
   </si>
   <si>
-    <t>fsqa1tpn@gmail.com</t>
-  </si>
-  <si>
     <t>fsssacct31@gmail.com</t>
-  </si>
-  <si>
-    <t>Admin123</t>
   </si>
 </sst>
 </file>
@@ -404,7 +398,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -422,26 +416,20 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{4DE231DB-3E77-F94C-B627-801BFE92BFBA}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{6C3DCD2A-E3FC-A944-B0A1-156BED3F4CFE}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{808D9039-7A70-6946-B13B-66397101A843}"/>
-    <hyperlink ref="B3" r:id="rId4" display="Admin@123" xr:uid="{4E721FC6-C664-6347-AB41-2679A15E3629}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
